--- a/data/sample and physician info.xlsx
+++ b/data/sample and physician info.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tan/git-data-share/said_nanostring/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise.sharepoint.com/teams/GRP_ISGnanostring/Shared Documents/sample info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EF1CA-3703-8140-A7FB-0C61F95C1527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="13_ncr:1_{2F5C8908-57AF-CF44-9CD5-211AC4572C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8ADA07C-FD24-8E48-90D6-D0E25CC53B3D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{F0D9EF7C-A32B-D544-871A-1BA137BB7A72}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="25040" windowHeight="16120" xr2:uid="{F0D9EF7C-A32B-D544-871A-1BA137BB7A72}"/>
   </bookViews>
   <sheets>
     <sheet name="sample info" sheetId="1" r:id="rId1"/>
     <sheet name="physician contact info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sample info'!$A$1:$K$22</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="191">
   <si>
     <t>Patient ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +102,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ISG-4</t>
+  </si>
+  <si>
+    <t>EXP-21-DN5207</t>
+  </si>
+  <si>
     <t>v1</t>
   </si>
   <si>
+    <t>ISG-3</t>
+  </si>
+  <si>
     <t>AnnaCarin Horne</t>
   </si>
   <si>
+    <t>ISG-2</t>
+  </si>
+  <si>
+    <t>ISG-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Berg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skövde </t>
+  </si>
+  <si>
+    <t>EXP-21-DN5208</t>
+  </si>
+  <si>
+    <t>ISG-8</t>
+  </si>
+  <si>
     <t>EXP-21-DN5209</t>
+  </si>
+  <si>
+    <t>ISG-7</t>
+  </si>
+  <si>
+    <t>Gunnar Liminga</t>
   </si>
   <si>
     <t>ISG-6</t>
@@ -121,31 +151,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ISG-9</t>
+  </si>
+  <si>
+    <t>CMMS</t>
+  </si>
+  <si>
+    <t>EXP-21-DN5210</t>
+  </si>
+  <si>
+    <t>ISG-11</t>
+  </si>
+  <si>
+    <t>ISG-10</t>
+  </si>
+  <si>
+    <t>ISG-12</t>
+  </si>
+  <si>
+    <t>RC9311X1 and CP9311X1</t>
+  </si>
+  <si>
+    <t>EXP-21-DN5211</t>
+  </si>
+  <si>
+    <t>EXP-21-DN5212</t>
+  </si>
+  <si>
+    <t>ISG-14</t>
+  </si>
+  <si>
+    <t>ISG-13</t>
+  </si>
+  <si>
+    <t>ISG-15</t>
+  </si>
+  <si>
+    <t>Erik Sundberg</t>
+  </si>
+  <si>
+    <t>EXP-21-DN5214</t>
+  </si>
+  <si>
+    <t>ISG-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillemor Berntson </t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
     <t>RC9753X1 and CP9753X1</t>
   </si>
   <si>
+    <t>EXP-22-DN5215</t>
+  </si>
+  <si>
     <t>v2</t>
   </si>
   <si>
+    <t>ISG-16</t>
+  </si>
+  <si>
+    <t>ISG-20</t>
+  </si>
+  <si>
     <t>EXP-22-DN5218</t>
   </si>
   <si>
+    <t>ISG-19</t>
+  </si>
+  <si>
+    <t>ISG-21</t>
+  </si>
+  <si>
+    <t>EXP-22-DN5219</t>
+  </si>
+  <si>
+    <t>ISG-22</t>
+  </si>
+  <si>
+    <t>EXP-22-DN5221</t>
+  </si>
+  <si>
+    <t>ISG-23</t>
+  </si>
+  <si>
+    <t>Kim Ramme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppsala </t>
+  </si>
+  <si>
     <t>RC9753X2 and CP9753X2</t>
+  </si>
+  <si>
+    <t>EXP-22-DN5227</t>
+  </si>
+  <si>
+    <t>ISG-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maria Lindmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linköping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karolinska - Huddinge</t>
+  </si>
+  <si>
+    <t>ISG-26</t>
+  </si>
+  <si>
+    <t>EXP-22-run20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-25</t>
+  </si>
+  <si>
+    <t>Maria Altman</t>
+  </si>
+  <si>
+    <t>ISG-24</t>
   </si>
   <si>
     <t>EXP-22-run21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ISG-6</t>
+    <t>ISG-33</t>
+  </si>
+  <si>
+    <t>ISG-32</t>
+  </si>
+  <si>
+    <t>ISG-31</t>
+  </si>
+  <si>
+    <t>ISG-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
+    <t>ISG-29</t>
+  </si>
+  <si>
+    <t>ISG-13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,52 +316,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ISG-36</t>
+  </si>
+  <si>
+    <t>Karolinska</t>
+  </si>
+  <si>
+    <t>ISG-35</t>
+  </si>
+  <si>
+    <t>Simon Jarrik</t>
+  </si>
+  <si>
+    <t>Örebro</t>
+  </si>
+  <si>
     <t>ISG-34</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>EXP-23-DN5230</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5_stim</t>
+  </si>
+  <si>
+    <t>5_unstim</t>
+  </si>
+  <si>
+    <t>ISG-40</t>
+  </si>
+  <si>
+    <t>Emma Caffrey Oswald</t>
+  </si>
+  <si>
     <t>EXP-23-DN5233</t>
   </si>
   <si>
+    <t>012770</t>
+  </si>
+  <si>
+    <t>ISG-39</t>
+  </si>
+  <si>
+    <t>012737</t>
+  </si>
+  <si>
+    <t>ISG-38</t>
+  </si>
+  <si>
+    <t>ISG-37</t>
+  </si>
+  <si>
+    <t>012399</t>
+  </si>
+  <si>
     <t>012847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG-1 </t>
   </si>
   <si>
     <t>EXP-23-DN5233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>012851</t>
+  </si>
+  <si>
     <t>ISG-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6_unstim</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>EXP-23-DN5232</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>012397</t>
+  </si>
+  <si>
+    <t>6_stim</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>012398</t>
+  </si>
+  <si>
     <t>012762</t>
   </si>
   <si>
-    <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP-23-DN5234</t>
   </si>
   <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ISG-41</t>
+  </si>
+  <si>
+    <t>Sterfan Berg</t>
+  </si>
+  <si>
+    <t>Gothemburg</t>
+  </si>
+  <si>
+    <t>ISG-42</t>
+  </si>
+  <si>
+    <t>ISG-43</t>
+  </si>
+  <si>
+    <t>ISG-44</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>RC10699X1 and CP9753X3</t>
+  </si>
+  <si>
+    <t>ISG-45</t>
+  </si>
+  <si>
+    <t>Karolinska - Solna</t>
   </si>
   <si>
     <t>Contact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Maria Lindmark</t>
+  </si>
+  <si>
+    <t>Maria.I.Lindmark@regionostergotland.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erik.sundberg@regionstockholm.se </t>
+  </si>
+  <si>
+    <t>kim.ramme@akademiska.se</t>
+  </si>
+  <si>
+    <t>stefan.berg@pediat.gu.se</t>
+  </si>
+  <si>
+    <t>lillemor.berntson@kbh.uu.se</t>
+  </si>
+  <si>
+    <t>gunnar.liminga@akademiska.se</t>
+  </si>
+  <si>
+    <t>Maria.altman@regionstockholm.se</t>
+  </si>
+  <si>
     <t>annacarin.horne@ki.se</t>
   </si>
   <si>
@@ -213,7 +481,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Karolinska - Solna </t>
+    <t>EXP-23-DN5236</t>
+  </si>
+  <si>
+    <t>EXP-24-DN5238</t>
+  </si>
+  <si>
+    <t>104592</t>
+  </si>
+  <si>
+    <t>13224</t>
+  </si>
+  <si>
+    <t>Asbjørg Stray-Pedersen</t>
+  </si>
+  <si>
+    <t>ISG-46</t>
+  </si>
+  <si>
+    <t>ISG-47</t>
+  </si>
+  <si>
+    <t>ISG-48</t>
+  </si>
+  <si>
+    <t>ISG-50</t>
+  </si>
+  <si>
+    <t>ISG-51</t>
+  </si>
+  <si>
+    <t>ISG-52</t>
+  </si>
+  <si>
+    <t>EXP-24-EE2601</t>
+  </si>
+  <si>
+    <t>ISG-49</t>
+  </si>
+  <si>
+    <t>EXP-24-EE2600</t>
+  </si>
+  <si>
+    <t>13181</t>
+  </si>
+  <si>
+    <t>104594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hege Kvasnes </t>
+  </si>
+  <si>
+    <t>ISG-6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-30M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-30F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-34F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP-24-EE2602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP-24-EE2601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erik Sundberg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-53</t>
+  </si>
+  <si>
+    <t>ISG-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG-55 </t>
+  </si>
+  <si>
+    <t>ISG-56</t>
+  </si>
+  <si>
+    <t>ISG-57</t>
+  </si>
+  <si>
+    <t>ISG-58</t>
+  </si>
+  <si>
+    <t>13211</t>
+  </si>
+  <si>
+    <t>EXP-24-EE2603</t>
+  </si>
+  <si>
+    <t>EXP-24-EE2603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karin Palmblad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karolinska</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamed Rezai</t>
+  </si>
+  <si>
+    <t>Berg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-59</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISG-60</t>
+  </si>
+  <si>
+    <t>ISG-61</t>
+  </si>
+  <si>
+    <t>ISG-62</t>
+  </si>
+  <si>
+    <t>ISG-63</t>
+  </si>
+  <si>
+    <t>ISG-64</t>
+  </si>
+  <si>
+    <t>ISG-65</t>
+  </si>
+  <si>
+    <t>ISG-66</t>
+  </si>
+  <si>
+    <t>ISG-67</t>
+  </si>
+  <si>
+    <t>ISG-68</t>
+  </si>
+  <si>
+    <t>Gustaf Hellspong</t>
+  </si>
+  <si>
+    <t>EXP-24-EE2604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnaCarin</t>
+  </si>
+  <si>
+    <t>Petter Brodin</t>
+  </si>
+  <si>
+    <t>Maria Altmann</t>
   </si>
 </sst>
 </file>
@@ -223,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +732,38 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -297,10 +771,46 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +861,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -377,6 +896,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -389,6 +911,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -398,12 +923,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -411,10 +958,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,60 +1308,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBF9B29-5247-F44A-9BEC-490F53FF3155}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="11" style="8"/>
-    <col min="3" max="3" width="24" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="8"/>
+    <col min="1" max="2" width="11" style="11"/>
+    <col min="3" max="3" width="24" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -802,13 +1378,13 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="13">
         <v>44280</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>44281</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="13">
         <v>44285</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -817,752 +1393,3973 @@
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="17">
         <v>100219</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10">
-        <v>44370</v>
-      </c>
-      <c r="F3" s="10">
-        <v>44396</v>
-      </c>
-      <c r="G3" s="10">
-        <v>44400</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13">
+        <v>44358</v>
+      </c>
+      <c r="F3" s="13">
+        <v>44362</v>
+      </c>
+      <c r="G3" s="13">
+        <v>44364</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="17">
+        <v>20154</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="13">
-        <v>11070</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13">
+        <v>44335</v>
+      </c>
+      <c r="F4" s="13">
+        <v>44362</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44364</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10">
-        <v>44595</v>
-      </c>
-      <c r="F4" s="10">
-        <v>44650</v>
-      </c>
-      <c r="G4" s="10">
-        <v>44652</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="13">
-        <v>11413</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>23</v>
+      <c r="J4" s="17">
+        <v>11014</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="13">
+        <v>44309</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44362</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44364</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44917</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44956</v>
-      </c>
-      <c r="G5" s="11">
-        <v>44960</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="17">
+        <v>10917</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="E6" s="13">
+        <v>44363</v>
+      </c>
+      <c r="F6" s="13">
+        <v>44396</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44398</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="15">
-        <v>12262</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11">
-        <v>44952</v>
-      </c>
-      <c r="F6" s="11">
-        <v>44956</v>
-      </c>
-      <c r="G6" s="11">
-        <v>44960</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="15">
-        <v>12304</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>23</v>
+      <c r="J6" s="17">
+        <v>100428</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11">
-        <v>44939</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44956</v>
-      </c>
-      <c r="G7" s="11">
-        <v>44960</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>44396</v>
+      </c>
+      <c r="G7" s="13">
+        <v>44400</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="15">
-        <v>12312</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17">
+        <v>100469</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="13">
+        <v>44369</v>
+      </c>
+      <c r="F8" s="13">
+        <v>44396</v>
+      </c>
+      <c r="G8" s="13">
+        <v>44400</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="17">
+        <v>100467</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13">
+        <v>44370</v>
+      </c>
+      <c r="F9" s="13">
+        <v>44396</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44400</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="17">
+        <v>11070</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13">
+        <v>44390</v>
+      </c>
+      <c r="F10" s="13">
+        <v>44410</v>
+      </c>
+      <c r="G10" s="13">
+        <v>44412</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="17">
+        <v>100472</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13">
+        <v>44410</v>
+      </c>
+      <c r="F11" s="13">
+        <v>44410</v>
+      </c>
+      <c r="G11" s="13">
+        <v>44412</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="17">
+        <v>11098</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13">
+        <v>44404</v>
+      </c>
+      <c r="F12" s="13">
+        <v>44410</v>
+      </c>
+      <c r="G12" s="13">
+        <v>44412</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="17">
+        <v>11123</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13">
+        <v>44425</v>
+      </c>
+      <c r="F13" s="13">
+        <v>44434</v>
+      </c>
+      <c r="G13" s="13">
+        <v>44439</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="17">
+        <v>11112</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>44987</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45019</v>
-      </c>
-      <c r="G8" s="11">
-        <v>45021</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="15">
-        <v>12354</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11">
-        <v>44995</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45019</v>
-      </c>
-      <c r="G9" s="11">
-        <v>45021</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="15">
-        <v>12362</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11">
-        <v>44964</v>
-      </c>
-      <c r="F10" s="11">
-        <v>45019</v>
-      </c>
-      <c r="G10" s="11">
-        <v>45021</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="15">
-        <v>12334</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11">
-        <v>44964</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45019</v>
-      </c>
-      <c r="G11" s="11">
-        <v>45021</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="15">
-        <v>12337</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11">
-        <v>44994</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45019</v>
-      </c>
-      <c r="G12" s="11">
-        <v>45021</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="15">
-        <v>12357</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45021</v>
-      </c>
-      <c r="F13" s="11">
-        <v>45027</v>
-      </c>
-      <c r="G13" s="11">
-        <v>45028</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="15">
-        <v>12374</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
+      <c r="B14" s="2">
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11">
-        <v>45021</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45027</v>
-      </c>
-      <c r="G14" s="11">
-        <v>45028</v>
+      <c r="E14" s="13">
+        <v>44494</v>
+      </c>
+      <c r="F14" s="13">
+        <v>44496</v>
+      </c>
+      <c r="G14" s="13">
+        <v>44498</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="15">
-        <v>12380</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="17">
+        <v>10805</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13">
+        <v>44491</v>
+      </c>
+      <c r="F15" s="13">
+        <v>44496</v>
+      </c>
+      <c r="G15" s="13">
+        <v>44498</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="17">
+        <v>10800</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="13">
+        <v>44475</v>
+      </c>
+      <c r="F16" s="13">
+        <v>44496</v>
+      </c>
+      <c r="G16" s="13">
+        <v>44498</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="17">
+        <v>11187</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13">
+        <v>44516</v>
+      </c>
+      <c r="F17" s="13">
+        <v>44524</v>
+      </c>
+      <c r="G17" s="13">
+        <v>44526</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="17">
+        <v>11001</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45098</v>
-      </c>
-      <c r="F15" s="11">
-        <v>45210</v>
-      </c>
-      <c r="G15" s="11">
-        <v>45211</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45082</v>
-      </c>
-      <c r="F16" s="11">
-        <v>45210</v>
-      </c>
-      <c r="G16" s="11">
-        <v>45211</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45037</v>
-      </c>
-      <c r="F17" s="11">
-        <v>45040</v>
-      </c>
-      <c r="G17" s="11">
-        <v>45041</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F18" s="13">
+        <v>44524</v>
+      </c>
+      <c r="G18" s="13">
+        <v>44526</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="15">
-        <v>12396</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10">
-        <v>44280</v>
-      </c>
-      <c r="F18" s="11">
-        <v>44281</v>
-      </c>
-      <c r="G18" s="11">
-        <v>44285</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="15">
-        <v>100220</v>
-      </c>
-      <c r="K18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="17">
+        <v>10962</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="10">
-        <v>44280</v>
-      </c>
-      <c r="F19" s="11">
-        <v>44281</v>
-      </c>
-      <c r="G19" s="11">
-        <v>44285</v>
+        <v>49</v>
+      </c>
+      <c r="E19" s="13">
+        <v>44575</v>
+      </c>
+      <c r="F19" s="13">
+        <v>44580</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44650</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="15">
-        <v>100221</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="J19" s="17">
+        <v>100826</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45173</v>
-      </c>
-      <c r="F20" s="11">
-        <v>45237</v>
-      </c>
-      <c r="G20" s="11">
-        <v>45238</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="13">
+        <v>44545</v>
+      </c>
+      <c r="F20" s="13">
+        <v>44580</v>
+      </c>
+      <c r="G20" s="13">
+        <v>44650</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="19">
-        <v>12881</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="17">
+        <v>100802</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="20">
-        <v>3</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="11">
-        <v>45231</v>
-      </c>
-      <c r="F21" s="11">
-        <v>45237</v>
-      </c>
-      <c r="G21" s="11">
-        <v>45238</v>
+      <c r="E21" s="13">
+        <v>44595</v>
+      </c>
+      <c r="F21" s="13">
+        <v>44650</v>
+      </c>
+      <c r="G21" s="13">
+        <v>44652</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="19">
-        <v>12933</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="17">
+        <v>11436</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="13">
+        <v>44595</v>
+      </c>
+      <c r="F22" s="13">
+        <v>44650</v>
+      </c>
+      <c r="G22" s="13">
+        <v>44652</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="17">
+        <v>11407</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="13">
+        <v>44595</v>
+      </c>
+      <c r="F23" s="13">
+        <v>44650</v>
+      </c>
+      <c r="G23" s="13">
+        <v>44652</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="17">
+        <v>11413</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="13">
+        <v>44690</v>
+      </c>
+      <c r="F24" s="13">
+        <v>44691</v>
+      </c>
+      <c r="G24" s="13">
+        <v>44692</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="17">
+        <v>11507</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44712</v>
+      </c>
+      <c r="F25" s="13">
+        <v>44720</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44722</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="19">
+        <v>11520</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="14">
+        <v>44694</v>
+      </c>
+      <c r="F26" s="13">
+        <v>44720</v>
+      </c>
+      <c r="G26" s="13">
+        <v>44722</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="19">
+        <v>11513</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="13">
+        <v>44733</v>
+      </c>
+      <c r="F27" s="13">
+        <v>44803</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44805</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="17">
+        <v>101130</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="13">
+        <v>44595</v>
+      </c>
+      <c r="F28" s="13">
+        <v>44650</v>
+      </c>
+      <c r="G28" s="13">
+        <v>44805</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="17">
+        <v>100864</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="13">
+        <v>44798</v>
+      </c>
+      <c r="F29" s="13">
+        <v>44803</v>
+      </c>
+      <c r="G29" s="13">
+        <v>44805</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="17">
+        <v>101128</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="13">
+        <v>44732</v>
+      </c>
+      <c r="F30" s="13">
+        <v>44803</v>
+      </c>
+      <c r="G30" s="13">
+        <v>44805</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="17">
+        <v>11545</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="15">
+        <v>44882</v>
+      </c>
+      <c r="F31" s="16">
+        <v>44914</v>
+      </c>
+      <c r="G31" s="16">
+        <v>44916</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="17">
+        <v>12244</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="13">
+        <v>44909</v>
+      </c>
+      <c r="F32" s="16">
+        <v>44914</v>
+      </c>
+      <c r="G32" s="16">
+        <v>44916</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="17">
+        <v>12256</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15">
+        <v>44830</v>
+      </c>
+      <c r="F33" s="16">
+        <v>44914</v>
+      </c>
+      <c r="G33" s="16">
+        <v>44916</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="17">
+        <v>11638</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="15">
+        <v>44917</v>
+      </c>
+      <c r="F34" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G34" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="20">
+        <v>12262</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="15">
+        <v>44952</v>
+      </c>
+      <c r="F35" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G35" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="20">
+        <v>12304</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F36" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G36" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="20">
+        <v>12288</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F37" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G37" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="20">
+        <v>12291</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F38" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G38" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="20">
+        <v>12294</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F39" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G39" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="20">
+        <v>12297</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F40" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G40" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="20">
+        <v>12285</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="15">
+        <v>44946</v>
+      </c>
+      <c r="F41" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G41" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="20">
+        <v>12282</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="15">
+        <v>44944</v>
+      </c>
+      <c r="F42" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G42" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="20">
+        <v>12278</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15">
+        <v>44938</v>
+      </c>
+      <c r="F43" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G43" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="20">
+        <v>12274</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15">
+        <v>44939</v>
+      </c>
+      <c r="F44" s="15">
+        <v>44956</v>
+      </c>
+      <c r="G44" s="15">
+        <v>44960</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="20">
+        <v>12312</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="15">
+        <v>44987</v>
+      </c>
+      <c r="F45" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G45" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="20">
+        <v>12354</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="15">
+        <v>44995</v>
+      </c>
+      <c r="F46" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G46" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="20">
+        <v>12362</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="15">
+        <v>44978</v>
+      </c>
+      <c r="F47" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G47" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="20">
+        <v>12346</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="15">
+        <v>44972</v>
+      </c>
+      <c r="F48" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G48" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="29">
+        <v>102780</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="15">
+        <v>44964</v>
+      </c>
+      <c r="F49" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G49" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="20">
+        <v>12334</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="15">
+        <v>44964</v>
+      </c>
+      <c r="F50" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G50" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="20">
+        <v>12337</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="15">
+        <v>44959</v>
+      </c>
+      <c r="F51" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G51" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="20">
+        <v>12330</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="6">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="15">
+        <v>44994</v>
+      </c>
+      <c r="F52" s="15">
+        <v>45019</v>
+      </c>
+      <c r="G52" s="15">
+        <v>45021</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="20">
+        <v>12357</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="6">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F53" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G53" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="20">
+        <v>12374</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F54" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G54" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="20">
+        <v>12375</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F55" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G55" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="20">
+        <v>12376</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F56" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G56" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="20">
+        <v>12380</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F57" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G57" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="20">
+        <v>12381</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="15">
+        <v>45021</v>
+      </c>
+      <c r="F58" s="15">
+        <v>45027</v>
+      </c>
+      <c r="G58" s="15">
+        <v>45028</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="20">
+        <v>12382</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="25">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="15">
+        <v>45091</v>
+      </c>
+      <c r="F59" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G59" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="25">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="15">
+        <v>45071</v>
+      </c>
+      <c r="F60" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G60" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17">
+      <c r="A61" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="25">
+        <v>1</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="15">
+        <v>45050</v>
+      </c>
+      <c r="F61" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G61" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="20">
+        <v>12730</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="25">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="15">
+        <v>45037</v>
+      </c>
+      <c r="F62" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G62" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="25">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="15">
+        <v>45098</v>
+      </c>
+      <c r="F63" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G63" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="25">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="15">
+        <v>45082</v>
+      </c>
+      <c r="F64" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G64" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J64" s="20">
+        <v>12758</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="25">
+        <v>3</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="15">
+        <v>45198</v>
+      </c>
+      <c r="F65" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G65" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" s="20">
+        <v>12913</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="25">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="15">
+        <v>45104</v>
+      </c>
+      <c r="F66" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G66" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="15">
+        <v>45037</v>
+      </c>
+      <c r="F67" s="15">
+        <v>45040</v>
+      </c>
+      <c r="G67" s="15">
+        <v>45041</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="15">
+        <v>45037</v>
+      </c>
+      <c r="F68" s="15">
+        <v>45040</v>
+      </c>
+      <c r="G68" s="15">
+        <v>45041</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="25">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="15">
+        <v>45082</v>
+      </c>
+      <c r="F69" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G69" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="25">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="15">
+        <v>45209</v>
+      </c>
+      <c r="F70" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G70" s="15">
+        <v>45211</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="20">
+        <v>12922</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="6">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="15">
+        <v>45037</v>
+      </c>
+      <c r="F71" s="15">
+        <v>45040</v>
+      </c>
+      <c r="G71" s="15">
+        <v>45041</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="20">
+        <v>12396</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="13">
+        <v>44280</v>
+      </c>
+      <c r="F72" s="15">
+        <v>44281</v>
+      </c>
+      <c r="G72" s="15">
+        <v>44285</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="20">
+        <v>100220</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="13">
+        <v>44280</v>
+      </c>
+      <c r="F73" s="15">
+        <v>44281</v>
+      </c>
+      <c r="G73" s="15">
+        <v>44285</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="20">
+        <v>100221</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="31">
+        <v>2</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="15">
+        <v>45173</v>
+      </c>
+      <c r="F74" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G74" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J74" s="30">
+        <v>12881</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="31">
+        <v>1</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="15">
+        <v>45180</v>
+      </c>
+      <c r="F75" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G75" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" s="30">
+        <v>104416</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="31">
+        <v>1</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="15">
+        <v>45195</v>
+      </c>
+      <c r="F76" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G76" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="30">
+        <v>12910</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="31">
+        <v>1</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="15">
+        <v>45204</v>
+      </c>
+      <c r="F77" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G77" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" s="30">
+        <v>12919</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="31">
+        <v>1</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="15">
+        <v>45230</v>
+      </c>
+      <c r="F78" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G78" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J78" s="30">
+        <v>12928</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="31">
+        <v>3</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="15">
+        <v>45231</v>
+      </c>
+      <c r="F79" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G79" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="30">
+        <v>12933</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="31">
+        <v>2</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="15">
+        <v>45231</v>
+      </c>
+      <c r="F80" s="15">
+        <v>45237</v>
+      </c>
+      <c r="G80" s="15">
+        <v>45238</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" s="30">
+        <v>12936</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17">
+      <c r="A81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="6">
+        <v>10</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="15">
+        <v>45237</v>
+      </c>
+      <c r="F81" s="33">
+        <v>45265</v>
+      </c>
+      <c r="G81" s="15">
+        <v>45268</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="30">
+        <v>12939</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17">
+      <c r="A82" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="15">
+        <v>45244</v>
+      </c>
+      <c r="F82" s="15">
+        <v>45265</v>
+      </c>
+      <c r="G82" s="15">
+        <v>45268</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" s="30">
+        <v>12945</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="11">
+        <v>1</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="39">
+        <v>45264</v>
+      </c>
+      <c r="F83" s="12">
+        <v>45330</v>
+      </c>
+      <c r="G83" s="12">
+        <v>45331</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17">
+      <c r="A84" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="11">
+        <v>1</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="39">
+        <v>45274</v>
+      </c>
+      <c r="F84" s="12">
+        <v>45330</v>
+      </c>
+      <c r="G84" s="12">
+        <v>45331</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="38">
+        <v>13048</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17">
+      <c r="A85" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="11">
+        <v>11</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="39">
+        <v>45299</v>
+      </c>
+      <c r="F85" s="12">
+        <v>45330</v>
+      </c>
+      <c r="G85" s="12">
+        <v>45331</v>
+      </c>
+      <c r="H85" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="38">
+        <v>13170</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17">
+      <c r="A86" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="39">
+        <v>45308</v>
+      </c>
+      <c r="F86" s="12">
+        <v>45330</v>
+      </c>
+      <c r="G86" s="12">
+        <v>45331</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17">
+      <c r="A87" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="6">
+        <v>3</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="39">
+        <v>45351</v>
+      </c>
+      <c r="F87" s="12">
+        <v>45359</v>
+      </c>
+      <c r="G87" s="12">
+        <v>45360</v>
+      </c>
+      <c r="H87" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J87" s="42">
+        <v>13205</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="17">
+      <c r="A88" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="39">
+        <v>45355</v>
+      </c>
+      <c r="F88" s="12">
+        <v>45359</v>
+      </c>
+      <c r="G88" s="12">
+        <v>45360</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="42">
+        <v>13208</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17">
+      <c r="A89" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="12">
+        <v>45358</v>
+      </c>
+      <c r="F89" s="12">
+        <v>45359</v>
+      </c>
+      <c r="G89" s="12">
+        <v>45360</v>
+      </c>
+      <c r="H89" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J89" s="42">
+        <v>13202</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17">
+      <c r="A90" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="11">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="39">
+        <v>45324</v>
+      </c>
+      <c r="F90" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G90" s="12">
+        <v>45349</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J90" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="17">
+      <c r="A91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="11">
+        <v>7</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="12">
+        <v>45327</v>
+      </c>
+      <c r="F91" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G91" s="12">
+        <v>45349</v>
+      </c>
+      <c r="H91" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J91" s="38">
+        <v>13185</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="17">
+      <c r="A92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="6">
+        <v>3</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="12">
+        <v>45329</v>
+      </c>
+      <c r="F92" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G92" s="12">
+        <v>45349</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J92" s="38">
+        <v>13187</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="17">
+      <c r="A93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="12">
+        <v>45327</v>
+      </c>
+      <c r="F93" s="12">
+        <v>45345</v>
+      </c>
+      <c r="G93" s="12">
+        <v>45349</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J93" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="17">
+      <c r="A94" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="6">
+        <v>4</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" s="39">
+        <v>45348</v>
+      </c>
+      <c r="F94" s="12">
+        <v>45365</v>
+      </c>
+      <c r="G94" s="12">
+        <v>45368</v>
+      </c>
+      <c r="H94" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J94" s="42">
+        <v>13197</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17">
+      <c r="A95" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="11">
+        <v>1</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="12">
+        <v>45264</v>
+      </c>
+      <c r="H95" s="36"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" ht="17">
+      <c r="A96" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="43">
+        <v>2</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="11">
-        <v>45231</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45237</v>
-      </c>
-      <c r="G22" s="11">
-        <v>45238</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="19">
-        <v>12936</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="23">
+      <c r="D96" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="44">
+        <v>45365</v>
+      </c>
+      <c r="F96" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G96" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H96" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J96" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17">
+      <c r="A97" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="43">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="44">
+        <v>45369</v>
+      </c>
+      <c r="F97" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G97" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H97" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J97" s="41">
+        <v>13212</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17">
+      <c r="A98" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="43">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="24">
-        <v>45104</v>
-      </c>
-      <c r="F23" s="24">
-        <v>45210</v>
-      </c>
-      <c r="G23" s="24">
-        <v>45211</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12851</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>23</v>
+      <c r="C98" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="44">
+        <v>45373</v>
+      </c>
+      <c r="F98" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G98" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H98" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J98" s="41">
+        <v>13216</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17">
+      <c r="A99" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="43">
+        <v>13</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="44">
+        <v>45373</v>
+      </c>
+      <c r="F99" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G99" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H99" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J99" s="41">
+        <v>13217</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17">
+      <c r="A100" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="43">
+        <v>1</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="44">
+        <v>45373</v>
+      </c>
+      <c r="F100" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G100" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H100" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J100" s="41">
+        <v>40760</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17">
+      <c r="A101" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="43">
+        <v>1</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="44">
+        <v>45373</v>
+      </c>
+      <c r="F101" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G101" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H101" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J101" s="41">
+        <v>13218</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17">
+      <c r="A102" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="43">
+        <v>1</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="44">
+        <v>45387</v>
+      </c>
+      <c r="F102" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G102" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H102" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J102" s="41">
+        <v>13257</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="17">
+      <c r="A103" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="43">
+        <v>1</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E103" s="44">
+        <v>45390</v>
+      </c>
+      <c r="F103" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G103" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H103" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J103" s="41">
+        <v>13233</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17">
+      <c r="A104" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="43">
+        <v>14</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="44">
+        <v>45390</v>
+      </c>
+      <c r="F104" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G104" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H104" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J104" s="41">
+        <v>13232</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17">
+      <c r="A105" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="43">
+        <v>1</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="44">
+        <v>45393</v>
+      </c>
+      <c r="F105" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G105" s="12">
+        <v>45395</v>
+      </c>
+      <c r="H105" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J105" s="41">
+        <v>13222</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17">
+      <c r="A106" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="43">
+        <v>1</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="44">
+        <v>45397</v>
+      </c>
+      <c r="F106" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G106" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H106" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J106" s="41">
+        <v>13225</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17">
+      <c r="A107" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="43">
+        <v>9</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="44">
+        <v>45398</v>
+      </c>
+      <c r="F107" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G107" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J107" s="41">
+        <v>13226</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17">
+      <c r="A108" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="43">
+        <v>1</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="44">
+        <v>45398</v>
+      </c>
+      <c r="F108" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G108" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J108" s="41">
+        <v>13227</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17">
+      <c r="A109" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="43">
+        <v>1</v>
+      </c>
+      <c r="C109" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="44">
+        <v>45399</v>
+      </c>
+      <c r="F109" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G109" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H109" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J109" s="41">
+        <v>13229</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17">
+      <c r="A110" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="43">
+        <v>1</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" s="44">
+        <v>45405</v>
+      </c>
+      <c r="F110" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G110" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H110" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J110" s="41">
+        <v>13230</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17">
+      <c r="A111" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="43">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E111" s="44">
+        <v>45406</v>
+      </c>
+      <c r="F111" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G111" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H111" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J111" s="41">
+        <v>13338</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17">
+      <c r="A112" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="43">
+        <v>1</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="44">
+        <v>45406</v>
+      </c>
+      <c r="F112" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G112" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H112" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J112" s="41">
+        <v>13339</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="17">
+      <c r="A113" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="43">
+        <v>1</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" s="44">
+        <v>45406</v>
+      </c>
+      <c r="F113" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G113" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H113" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J113" s="41">
+        <v>13376</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17">
+      <c r="A114" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="43">
+        <v>1</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="44">
+        <v>45407</v>
+      </c>
+      <c r="F114" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G114" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H114" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J114" s="41">
+        <v>13377</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="17">
+      <c r="A115" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" s="43">
+        <v>1</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="44">
+        <v>45408</v>
+      </c>
+      <c r="F115" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G115" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H115" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J115" s="41">
+        <v>13378</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="17">
+      <c r="A116" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="43">
+        <v>1</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="44">
+        <v>45412</v>
+      </c>
+      <c r="F116" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G116" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H116" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J116" s="41">
+        <v>13379</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17">
+      <c r="A117" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="43">
+        <v>2</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" s="44">
+        <v>45414</v>
+      </c>
+      <c r="F117" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G117" s="12">
+        <v>45419</v>
+      </c>
+      <c r="H117" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J117" s="41">
+        <v>40829</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K22" xr:uid="{EFBF9B29-5247-F44A-9BEC-490F53FF3155}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="G2:G16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
+    <sortCondition ref="G2:G70"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389F3ED9-450A-BF4B-83CB-DB8B71CDCF93}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1588,53 +5385,119 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
+      <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:annacarin.horne@ki.se" xr:uid="{E891DD25-5AF1-E44C-B4B8-DE5475FBE782}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{27085649-E02A-BD4C-9EB1-D97E15D017EB}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7725AF6B-ABAC-9E4F-90B8-A194403546D6}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:Maria.I.Lindmark@regionostergotland.se" xr:uid="{349E977F-4092-3246-B3AE-9BE90B53AE4F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{79CF7C83-C0DD-49A7-AB53-D49784ED18C7}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{0A185CCA-4CA8-487E-8F03-5529DAB6AFA3}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{0824E112-7F17-4416-87CD-E73584DB7425}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{1AFEEF0A-07B4-42BA-A404-4C5BFA32D172}"/>
+    <hyperlink ref="B4" r:id="rId6" display="mailto:kim.ramme@akademiska.se" xr:uid="{0B78788B-F16C-CD46-A815-1D78151659C7}"/>
+    <hyperlink ref="B9" r:id="rId7" display="mailto:annacarin.horne@ki.se" xr:uid="{E891DD25-5AF1-E44C-B4B8-DE5475FBE782}"/>
+    <hyperlink ref="B8" r:id="rId8" display="mailto:Maria.altman@regionstockholm.se" xr:uid="{C0771B3D-03F2-B242-A267-A082148A9660}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{27085649-E02A-BD4C-9EB1-D97E15D017EB}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7725AF6B-ABAC-9E4F-90B8-A194403546D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F14B9D613672434789309F702438EFC2" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c35ddc05c2f7de5cb6f83a124e9bc23c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa080136-7c71-447e-b9f5-7ce17152f9a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8dcfc67873d72619e098c6119c955a1" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100F14B9D613672434789309F702438EFC2" ma:contentTypeVersion="4" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="75585c60e2a4672937ae626442f7e531">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa080136-7c71-447e-b9f5-7ce17152f9a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd6bd0ecd1bd8bae51fbb18ce02be2e" ns2:_="">
     <xsd:import namespace="aa080136-7c71-447e-b9f5-7ce17152f9a1"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1645,6 +5508,7 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1670,6 +5534,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -1680,8 +5549,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1771,32 +5640,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7005C52F-BEB4-44AE-9068-11E8453BCA77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE9CD0F-E168-4D62-880F-9AD37396197E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="aa080136-7c71-447e-b9f5-7ce17152f9a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9295139C-E781-43D4-82F2-5775F6957AF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14EE4B71-0E44-4FCE-AF1D-920116940E5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1814,9 +5672,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE9CD0F-E168-4D62-880F-9AD37396197E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7005C52F-BEB4-44AE-9068-11E8453BCA77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aa080136-7c71-447e-b9f5-7ce17152f9a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>